--- a/xlsx/国际事务研究院_intext.xlsx
+++ b/xlsx/国际事务研究院_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%BA%AB</t>
   </si>
   <si>
-    <t>智庫</t>
-  </si>
-  <si>
-    <t>政策_政策_智庫_国际事务研究院</t>
+    <t>智库</t>
+  </si>
+  <si>
+    <t>政策_政策_智库_国际事务研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>國際政治</t>
+    <t>国际政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7</t>
